--- a/config/default.xlsx
+++ b/config/default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schir\OneDrive\Studium\34_Github\PyPowerSim\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CFD138-A8F4-457C-ABFB-70510DDF0024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BD4CF4-A877-4909-81F4-E5A6CEB4DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="237">
   <si>
     <t>#</t>
   </si>
@@ -780,6 +780,9 @@
   </si>
   <si>
     <t>0127</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAB857B-5D2E-4BE1-B462-B4B5EEAA4370}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1789,7 +1792,7 @@
         <v>39</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>23</v>
@@ -2534,7 +2537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245B3F0A-B85A-4162-A12D-AC7176B54015}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>

--- a/config/default.xlsx
+++ b/config/default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schir\OneDrive\Studium\34_Github\PyPowerSim\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BD4CF4-A877-4909-81F4-E5A6CEB4DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{28BD4CF4-A877-4909-81F4-E5A6CEB4DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA5D9E9D-7100-4157-9B77-E49AE4C126F9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12204" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="260">
   <si>
     <t>#</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Review for python implementation</t>
   </si>
   <si>
-    <t>19.03.2024</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
   </si>
   <si>
     <t>p.u.</t>
-  </si>
-  <si>
-    <t>config_Template</t>
   </si>
   <si>
     <t>Initial implementation of the config template</t>
@@ -783,6 +777,81 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>23.06.2024</t>
+  </si>
+  <si>
+    <t>v.1.0</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Color-Code</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Headings</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>First complete template</t>
+  </si>
+  <si>
+    <t>Information (can be changed for personal notes and markup)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Input values</t>
+  </si>
+  <si>
+    <t>Variable names read by toolkit</t>
+  </si>
+  <si>
+    <t>Input Filter</t>
+  </si>
+  <si>
+    <t>Filter Resistance</t>
+  </si>
+  <si>
+    <t>Filter Inductance</t>
+  </si>
+  <si>
+    <t>Filter Capacitance</t>
+  </si>
+  <si>
+    <t>Output Filter</t>
+  </si>
+  <si>
+    <t>Load Resistance</t>
+  </si>
+  <si>
+    <t>Load Inductance</t>
+  </si>
+  <si>
+    <t>Back EMF Mag</t>
+  </si>
+  <si>
+    <t>Back EMF Angle</t>
+  </si>
+  <si>
+    <t>Output Waveform</t>
+  </si>
+  <si>
+    <t>Output Frequency</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -810,7 +879,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -835,8 +904,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1151,11 +1244,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1165,9 +1338,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1178,33 +1348,18 @@
     <xf numFmtId="11" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1220,15 +1375,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1250,22 +1396,82 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1282,6 +1488,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1581,29 +1791,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA655AC4-52E1-45C0-83AC-CC64B56C05A9}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.81640625" customWidth="1"/>
-    <col min="5" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.77734375" customWidth="1"/>
+    <col min="5" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1611,23 +1823,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1646,8 +1859,13 @@
       <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="K13" s="68"/>
+      <c r="L13" s="69"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1658,7 +1876,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -1666,8 +1884,17 @@
       <c r="F14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J14" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -1686,23 +1913,69 @@
       <c r="F15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J15" s="41"/>
+      <c r="K15" t="s">
+        <v>241</v>
+      </c>
+      <c r="L15" s="42" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="43"/>
+      <c r="K16" t="s">
+        <v>244</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="J17" s="44"/>
+      <c r="K17" t="s">
+        <v>246</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>5</v>
       </c>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="L18" s="47" t="s">
+        <v>242</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J13:L13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1712,162 +1985,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAB857B-5D2E-4BE1-B462-B4B5EEAA4370}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:6" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D4" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="E4" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="23">
+        <v>500000</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="D6" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="22" t="s">
+      <c r="D7" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="29">
-        <v>500000</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="42" t="s">
+      <c r="E7" s="12">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D8" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="13">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="18">
+      <c r="E8" s="15">
         <v>20</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>23</v>
+      <c r="F8" s="55" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1908,313 +2181,313 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="18">
+        <v>4</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="11">
+        <v>20</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E4" s="28">
+        <v>25</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E5" s="28">
+        <v>25</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="11">
+        <v>500</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="11">
+        <v>50</v>
+      </c>
+      <c r="F8" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="11">
+        <v>25</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="29">
+        <v>1</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="11">
+        <v>600</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B14" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="12">
-        <v>20</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="37">
+      <c r="D14" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="28">
         <v>25</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="37">
+      <c r="F14" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="31">
         <v>25</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="12">
-        <v>500</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="12">
-        <v>50</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="12">
-        <v>25</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="38">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="12">
-        <v>600</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="30">
-        <v>0</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="37">
-        <v>25</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="40">
-        <v>25</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>30</v>
+      <c r="F15" s="55" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2240,277 +2513,306 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799FBFCB-8244-4B83-8CC9-EBD2890613E5}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="48.6328125" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46" t="s">
+    <row r="2" spans="1:6" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="48" t="s">
+      <c r="D4" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="E4" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="54" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D5" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E5" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="11">
         <v>0</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F7" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="54" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="32"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="F9" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="13">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="12">
         <v>1E-3</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F10" s="54" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="12">
+        <v>5</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="32"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="13">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="32"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="32"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="32"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="32"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="32"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="13">
-        <v>5</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="32"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10" t="s">
+      <c r="D15" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="32"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="D16" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="13">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="32"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="33"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="E16" s="15">
         <v>50</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>29</v>
+      <c r="F16" s="55" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2537,673 +2839,673 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245B3F0A-B85A-4162-A12D-AC7176B54015}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.36328125" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.33203125" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:6" ht="58.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B4" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="23" t="s">
+      <c r="D4" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="F4" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B5" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D5" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
+      <c r="F5" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B6" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D6" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
+      <c r="B11" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1050</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="F14" s="55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1050</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="11">
+        <v>100</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="24">
+        <v>1</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="E22" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="11">
         <v>0</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="F25" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="24">
+        <v>1</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="18">
+        <v>1</v>
+      </c>
+      <c r="F32" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="24">
         <v>0</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="12">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="42"/>
-      <c r="B11" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="12">
-        <v>1050</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="12">
-        <v>1050</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" s="12">
-        <v>100</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" s="12">
-        <v>1</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="30">
-        <v>1</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="12">
-        <v>0</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" s="12">
-        <v>1</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="12">
-        <v>1</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="12">
-        <v>1</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E31" s="30">
-        <v>1</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="E32" s="23">
-        <v>1</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" s="30">
-        <v>0</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>23</v>
+      <c r="F33" s="55" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/config/default.xlsx
+++ b/config/default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{28BD4CF4-A877-4909-81F4-E5A6CEB4DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA5D9E9D-7100-4157-9B77-E49AE4C126F9}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{28BD4CF4-A877-4909-81F4-E5A6CEB4DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59C139F1-537B-43DE-ABC9-43BD093ACAC7}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12204" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -412,11 +412,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>(con): constant, 
-(sin): sinusoidal, 
-(tri): triangular</t>
-  </si>
-  <si>
     <t>0) output filter is deactivated, 
 1) output filter is activated</t>
   </si>
@@ -559,9 +554,6 @@
     <t>Ther</t>
   </si>
   <si>
-    <t>PI</t>
-  </si>
-  <si>
     <t>tab</t>
   </si>
   <si>
@@ -572,12 +564,6 @@
   </si>
   <si>
     <t>con</t>
-  </si>
-  <si>
-    <t>(FF): fundamental frequency, 
-(CB): carrier based, 
-(SV): space vector based, 
-(OPP): optimal pulse pattern</t>
   </si>
   <si>
     <t>(SE): single edge, 
@@ -852,6 +838,22 @@
   </si>
   <si>
     <t>default</t>
+  </si>
+  <si>
+    <t>(con): constant, 
+(sin): sinusoidal, 
+(tri): triangular,
+(tar): trapezoidal</t>
+  </si>
+  <si>
+    <t>(FF): fundamental frequency, 
+(CB): carrier based, 
+(SV): space vector based, 
+(OPP): optimal pulse pattern,
+(OSM): optimal subcycle modulation</t>
+  </si>
+  <si>
+    <t>HY</t>
   </si>
 </sst>
 </file>
@@ -1488,10 +1490,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1793,7 +1791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA655AC4-52E1-45C0-83AC-CC64B56C05A9}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1812,7 +1810,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1828,7 +1826,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1836,7 +1834,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1860,7 +1858,7 @@
         <v>15</v>
       </c>
       <c r="J13" s="67" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K13" s="68"/>
       <c r="L13" s="69"/>
@@ -1885,13 +1883,13 @@
         <v>16</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L14" s="40" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1915,10 +1913,10 @@
       </c>
       <c r="J15" s="41"/>
       <c r="K15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L15" s="42" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1926,13 +1924,13 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -1942,10 +1940,10 @@
       </c>
       <c r="J16" s="43"/>
       <c r="K16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L16" s="42" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1954,10 +1952,10 @@
       </c>
       <c r="J17" s="44"/>
       <c r="K17" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L17" s="42" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1966,10 +1964,10 @@
       </c>
       <c r="J18" s="45"/>
       <c r="K18" s="46" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L18" s="47" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2065,7 +2063,7 @@
         <v>37</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F4" s="55" t="s">
         <v>22</v>
@@ -2514,7 +2512,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2547,7 +2545,7 @@
     </row>
     <row r="2" spans="1:6" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="58"/>
       <c r="C2" s="35" t="s">
@@ -2565,7 +2563,7 @@
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="17" t="s">
@@ -2583,7 +2581,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="62" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="9" t="s">
@@ -2601,7 +2599,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="9" t="s">
@@ -2619,7 +2617,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="62" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B6" s="48"/>
       <c r="C6" s="9" t="s">
@@ -2637,11 +2635,11 @@
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>103</v>
@@ -2655,11 +2653,11 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="51" t="s">
         <v>104</v>
@@ -2673,11 +2671,11 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="62" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="51" t="s">
         <v>105</v>
@@ -2691,11 +2689,11 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="62" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" s="51" t="s">
         <v>106</v>
@@ -2709,11 +2707,11 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="62" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" s="51" t="s">
         <v>107</v>
@@ -2727,11 +2725,11 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="62" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>108</v>
@@ -2745,11 +2743,11 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="62" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="51" t="s">
         <v>109</v>
@@ -2763,11 +2761,11 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="62" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="51" t="s">
         <v>110</v>
@@ -2779,13 +2777,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="62" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="10" t="s">
-        <v>121</v>
+        <v>257</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>111</v>
@@ -2799,11 +2797,11 @@
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="63" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>112</v>
@@ -2828,7 +2826,7 @@
       <formula2>10000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15" xr:uid="{57DF397D-0405-4640-86A0-348060BC68E3}">
-      <formula1>"con, sin, tri"</formula1>
+      <formula1>"con, sin, tri, tra"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2839,8 +2837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245B3F0A-B85A-4162-A12D-AC7176B54015}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2870,21 +2868,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="58.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>174</v>
+        <v>258</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F2" s="56" t="s">
         <v>22</v>
@@ -2892,19 +2890,19 @@
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F3" s="54" t="s">
         <v>22</v>
@@ -2912,19 +2910,19 @@
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>22</v>
@@ -2932,19 +2930,19 @@
     </row>
     <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F5" s="54" t="s">
         <v>22</v>
@@ -2952,13 +2950,13 @@
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>41</v>
@@ -2972,16 +2970,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="11">
         <v>0</v>
@@ -2992,16 +2990,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
@@ -3015,13 +3013,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
@@ -3032,16 +3030,16 @@
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
@@ -3053,13 +3051,13 @@
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
       <c r="B11" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="11">
         <v>0</v>
@@ -3070,13 +3068,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>27</v>
@@ -3090,19 +3088,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F13" s="54" t="s">
         <v>22</v>
@@ -3110,19 +3108,19 @@
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>22</v>
@@ -3130,19 +3128,19 @@
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="F15" s="56" t="s">
         <v>22</v>
@@ -3150,19 +3148,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E16" s="11">
-        <v>1050</v>
+        <v>20000</v>
       </c>
       <c r="F16" s="54" t="s">
         <v>28</v>
@@ -3170,16 +3168,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E17" s="11">
         <v>0</v>
@@ -3190,16 +3188,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" s="11">
         <v>100</v>
@@ -3210,16 +3208,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E19" s="11">
         <v>1</v>
@@ -3230,16 +3228,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E20" s="11">
         <v>0.1</v>
@@ -3250,16 +3248,16 @@
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" s="24">
         <v>1</v>
@@ -3270,19 +3268,19 @@
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F22" s="56" t="s">
         <v>22</v>
@@ -3290,19 +3288,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F23" s="54" t="s">
         <v>22</v>
@@ -3310,19 +3308,19 @@
     </row>
     <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F24" s="54" t="s">
         <v>22</v>
@@ -3330,16 +3328,16 @@
     </row>
     <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B25" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E25" s="11">
         <v>0</v>
@@ -3350,16 +3348,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E26" s="11">
         <v>1</v>
@@ -3370,16 +3368,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B27" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E27" s="11">
         <v>1</v>
@@ -3390,19 +3388,19 @@
     </row>
     <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F28" s="54" t="s">
         <v>22</v>
@@ -3410,16 +3408,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>97</v>
@@ -3430,16 +3428,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E30" s="11">
         <v>1</v>
@@ -3450,16 +3448,16 @@
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B31" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31" s="24">
         <v>1</v>
@@ -3470,16 +3468,16 @@
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E32" s="18">
         <v>1</v>
@@ -3493,13 +3491,13 @@
         <v>48</v>
       </c>
       <c r="B33" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E33" s="24">
         <v>0</v>
@@ -3511,7 +3509,7 @@
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{C4E97F42-90A4-439F-B50C-11CF79F6F56D}">
-      <formula1>"FF, CB, SV, OPP"</formula1>
+      <formula1>"FF, CB, SV, OPP, OSM"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{59C00FD6-B4B9-40ED-B5DF-7556515D16B9}">
       <formula1>"SE, DE"</formula1>

--- a/config/default.xlsx
+++ b/config/default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{28BD4CF4-A877-4909-81F4-E5A6CEB4DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59C139F1-537B-43DE-ABC9-43BD093ACAC7}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="13_ncr:1_{28BD4CF4-A877-4909-81F4-E5A6CEB4DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37FDEBEA-D44B-4D4B-B9ED-636B70A84657}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="305">
   <si>
     <t>#</t>
   </si>
@@ -854,6 +854,141 @@
   </si>
   <si>
     <t>HY</t>
+  </si>
+  <si>
+    <t>Iph Min</t>
+  </si>
+  <si>
+    <t>Iph Max</t>
+  </si>
+  <si>
+    <t>Iph Points</t>
+  </si>
+  <si>
+    <t>minIph</t>
+  </si>
+  <si>
+    <t>maxIph</t>
+  </si>
+  <si>
+    <t>nIph</t>
+  </si>
+  <si>
+    <t>Vdc Min</t>
+  </si>
+  <si>
+    <t>Vdc Max</t>
+  </si>
+  <si>
+    <t>Vdc Points</t>
+  </si>
+  <si>
+    <t>fel Min</t>
+  </si>
+  <si>
+    <t>fel Max</t>
+  </si>
+  <si>
+    <t>fel Points</t>
+  </si>
+  <si>
+    <t>fsw Min</t>
+  </si>
+  <si>
+    <t>fsw Max</t>
+  </si>
+  <si>
+    <t>fsw Points</t>
+  </si>
+  <si>
+    <t>Tc Min</t>
+  </si>
+  <si>
+    <t>Tc Max</t>
+  </si>
+  <si>
+    <t>Tc Points</t>
+  </si>
+  <si>
+    <t>minVdc</t>
+  </si>
+  <si>
+    <t>maxVdc</t>
+  </si>
+  <si>
+    <t>nVdc</t>
+  </si>
+  <si>
+    <t>minFel</t>
+  </si>
+  <si>
+    <t>maxFel</t>
+  </si>
+  <si>
+    <t>nFel</t>
+  </si>
+  <si>
+    <t>minFsw</t>
+  </si>
+  <si>
+    <t>maxFsw</t>
+  </si>
+  <si>
+    <t>nFsw</t>
+  </si>
+  <si>
+    <t>minTc</t>
+  </si>
+  <si>
+    <t>maxTc</t>
+  </si>
+  <si>
+    <t>nTc</t>
+  </si>
+  <si>
+    <t>Minimum value of the phase current in the LUT</t>
+  </si>
+  <si>
+    <t>Maximum value of the phase current in the LUT</t>
+  </si>
+  <si>
+    <t>Minimum value of the dc link voltage in the LUT</t>
+  </si>
+  <si>
+    <t>Maximum value of the dc link voltage in the LUT</t>
+  </si>
+  <si>
+    <t>Number of data points of the phase current in the LUT</t>
+  </si>
+  <si>
+    <t>Number of datapoints of the dc link voltage in the LUT</t>
+  </si>
+  <si>
+    <t>Minimum value of the fundamental freq. in the LUT</t>
+  </si>
+  <si>
+    <t>Maximum value of the fundamental freq. in the LUT</t>
+  </si>
+  <si>
+    <t>Number of datapoints of the fundamental freq. in the LUT</t>
+  </si>
+  <si>
+    <t>Minimum value of the switching freq. in the LUT</t>
+  </si>
+  <si>
+    <t>Maximum value of the switching freq. in the LUT</t>
+  </si>
+  <si>
+    <t>Number of datapoints of the switching freq. in the LUT</t>
+  </si>
+  <si>
+    <t>Minimum value of the coolant temperature in the LUT</t>
+  </si>
+  <si>
+    <t>Maximum value of the coolant temperature in the LUT</t>
+  </si>
+  <si>
+    <t>Number of datapoints of the coolant temperature in the LUT</t>
   </si>
 </sst>
 </file>
@@ -931,7 +1066,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1326,11 +1461,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1466,6 +1612,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1490,6 +1642,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1791,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA655AC4-52E1-45C0-83AC-CC64B56C05A9}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1857,11 +2013,11 @@
       <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="67" t="s">
+      <c r="J13" s="69" t="s">
         <v>234</v>
       </c>
-      <c r="K13" s="68"/>
-      <c r="L13" s="69"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="71"/>
     </row>
     <row r="14" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -1981,17 +2137,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAB857B-5D2E-4BE1-B462-B4B5EEAA4370}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.77734375" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2138,6 +2294,276 @@
         <v>20</v>
       </c>
       <c r="F8" s="55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="68">
+        <v>200</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="68">
+        <v>11</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="E12" s="68">
+        <v>400</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" s="68">
+        <v>800</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="E14" s="68">
+        <v>5</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="E15" s="68">
+        <v>50</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="E16" s="68">
+        <v>100</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="E17" s="68">
+        <v>2</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="68">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="67" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19" s="48"/>
+      <c r="C19" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="E19" s="68">
+        <v>5000</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="E20" s="68">
+        <v>2</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="E21" s="68">
+        <v>0</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="B22" s="48"/>
+      <c r="C22" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="68">
+        <v>75</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23" s="48"/>
+      <c r="C23" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="68">
+        <v>4</v>
+      </c>
+      <c r="F23" s="54" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2179,7 +2605,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2511,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799FBFCB-8244-4B83-8CC9-EBD2890613E5}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2826,7 +3252,7 @@
       <formula2>10000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15" xr:uid="{57DF397D-0405-4640-86A0-348060BC68E3}">
-      <formula1>"con, sin, tri, tra"</formula1>
+      <formula1>"con, sin, tri, tra, rec"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2837,7 +3263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245B3F0A-B85A-4162-A12D-AC7176B54015}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>

--- a/config/default.xlsx
+++ b/config/default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="13_ncr:1_{28BD4CF4-A877-4909-81F4-E5A6CEB4DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37FDEBEA-D44B-4D4B-B9ED-636B70A84657}"/>
+  <xr:revisionPtr revIDLastSave="263" documentId="13_ncr:1_{28BD4CF4-A877-4909-81F4-E5A6CEB4DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3943503-D7B1-4FBC-A901-F3E6A6FE7BA2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="30912" windowHeight="16752" activeTab="2" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="314">
   <si>
     <t>#</t>
   </si>
@@ -426,9 +426,6 @@
   </si>
   <si>
     <t>load resistance</t>
-  </si>
-  <si>
-    <t>load inductance</t>
   </si>
   <si>
     <t>induced voltage</t>
@@ -989,6 +986,36 @@
   </si>
   <si>
     <t>Number of datapoints of the coolant temperature in the LUT</t>
+  </si>
+  <si>
+    <t>v.1.1</t>
+  </si>
+  <si>
+    <t>05.02.2026</t>
+  </si>
+  <si>
+    <t>Adding Parameters for DAB</t>
+  </si>
+  <si>
+    <t>Transformer ratio</t>
+  </si>
+  <si>
+    <t>Transformer turns ratio n (primary/secondary)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>load inductance/ leakage inductance for DAB</t>
+  </si>
+  <si>
+    <t>Phi DAB</t>
+  </si>
+  <si>
+    <t>phase-shift between primary and secondary votlage DAB converter</t>
+  </si>
+  <si>
+    <t>PhiDAB</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1093,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1472,11 +1499,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1626,6 +1692,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1947,8 +2026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA655AC4-52E1-45C0-83AC-CC64B56C05A9}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1966,7 +2045,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>232</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1982,7 +2061,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1990,7 +2069,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2014,7 +2093,7 @@
         <v>15</v>
       </c>
       <c r="J13" s="69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K13" s="70"/>
       <c r="L13" s="71"/>
@@ -2039,13 +2118,13 @@
         <v>16</v>
       </c>
       <c r="J14" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="K14" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="L14" s="40" t="s">
         <v>236</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -2069,10 +2148,10 @@
       </c>
       <c r="J15" s="41"/>
       <c r="K15" t="s">
+        <v>237</v>
+      </c>
+      <c r="L15" s="42" t="s">
         <v>238</v>
-      </c>
-      <c r="L15" s="42" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -2080,13 +2159,13 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -2096,22 +2175,37 @@
       </c>
       <c r="J16" s="43"/>
       <c r="K16" t="s">
+        <v>240</v>
+      </c>
+      <c r="L16" s="42" t="s">
         <v>241</v>
-      </c>
-      <c r="L16" s="42" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>4</v>
       </c>
+      <c r="B17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" t="s">
+        <v>306</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
       <c r="J17" s="44"/>
       <c r="K17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L17" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2120,10 +2214,10 @@
       </c>
       <c r="J18" s="45"/>
       <c r="K18" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L18" s="47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2139,8 +2233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAB857B-5D2E-4BE1-B462-B4B5EEAA4370}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2219,7 +2313,7 @@
         <v>37</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F4" s="55" t="s">
         <v>22</v>
@@ -2299,14 +2393,14 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E9" s="11">
         <v>0</v>
@@ -2317,14 +2411,14 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E10" s="68">
         <v>200</v>
@@ -2335,14 +2429,14 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E11" s="68">
         <v>11</v>
@@ -2353,14 +2447,14 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E12" s="68">
         <v>400</v>
@@ -2371,14 +2465,14 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E13" s="68">
         <v>800</v>
@@ -2389,14 +2483,14 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="67" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E14" s="68">
         <v>5</v>
@@ -2407,14 +2501,14 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="67" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E15" s="68">
         <v>50</v>
@@ -2425,14 +2519,14 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E16" s="68">
         <v>100</v>
@@ -2443,14 +2537,14 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E17" s="68">
         <v>2</v>
@@ -2461,14 +2555,14 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E18" s="68">
         <v>1000</v>
@@ -2479,14 +2573,14 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E19" s="68">
         <v>5000</v>
@@ -2497,14 +2591,14 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E20" s="68">
         <v>2</v>
@@ -2515,14 +2609,14 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E21" s="68">
         <v>0</v>
@@ -2533,14 +2627,14 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="67" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E22" s="68">
         <v>75</v>
@@ -2551,14 +2645,14 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E23" s="68">
         <v>4</v>
@@ -2602,10 +2696,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86190CFD-1D2B-4FE4-A04E-A3C453840C86}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2796,121 +2890,141 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>88</v>
+        <v>311</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="29">
-        <v>1</v>
+        <v>313</v>
+      </c>
+      <c r="E10" s="11">
+        <v>10</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D12" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="11">
         <v>600</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F12" s="54" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B13" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D13" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E13" s="24">
         <v>0</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F13" s="55" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B14" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D14" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E14" s="30">
         <v>0.5</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F14" s="56" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B15" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D15" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E15" s="28">
         <v>25</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F15" s="54" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="s">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B16" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D16" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E16" s="31">
         <v>25</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F16" s="55" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2924,7 +3038,7 @@
       <formula1>5</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10" xr:uid="{509CB883-7406-4BD7-9F12-E7F3076592AF}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11" xr:uid="{509CB883-7406-4BD7-9F12-E7F3076592AF}">
       <formula1>0</formula1>
       <formula2>1.273</formula2>
     </dataValidation>
@@ -2935,10 +3049,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799FBFCB-8244-4B83-8CC9-EBD2890613E5}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2971,7 +3085,7 @@
     </row>
     <row r="2" spans="1:6" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="58"/>
       <c r="C2" s="35" t="s">
@@ -2989,7 +3103,7 @@
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="17" t="s">
@@ -3007,7 +3121,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="9" t="s">
@@ -3025,7 +3139,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="9" t="s">
@@ -3043,7 +3157,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="62" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B6" s="48"/>
       <c r="C6" s="9" t="s">
@@ -3061,7 +3175,7 @@
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="10" t="s">
@@ -3079,7 +3193,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="9" t="s">
@@ -3097,7 +3211,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="9" t="s">
@@ -3115,7 +3229,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="62" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="9" t="s">
@@ -3133,7 +3247,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="9" t="s">
@@ -3151,11 +3265,11 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="9" t="s">
-        <v>126</v>
+        <v>310</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>108</v>
@@ -3169,11 +3283,11 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" s="51" t="s">
         <v>109</v>
@@ -3187,11 +3301,11 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="62" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" s="51" t="s">
         <v>110</v>
@@ -3205,11 +3319,11 @@
     </row>
     <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>111</v>
@@ -3221,33 +3335,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="63" t="s">
-        <v>255</v>
-      </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="52" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="73"/>
+      <c r="C16" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>50</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="76" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="E17" s="31">
+        <v>10</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
+  <dataConsolidate/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{0F686018-17E9-412D-8844-1F931AF446BB}">
-      <formula1>"B2, B4, B6"</formula1>
+      <formula1>"B2, B4, B6, DAB"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E7" xr:uid="{B15B84C4-EBF9-4333-860D-2E332145069A}">
       <formula1>"0, 1"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{3815D881-1D9F-4D61-9797-2C577C4C7917}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E16" xr:uid="{3815D881-1D9F-4D61-9797-2C577C4C7917}">
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
@@ -3296,19 +3429,19 @@
     </row>
     <row r="2" spans="1:6" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="56" t="s">
         <v>22</v>
@@ -3316,19 +3449,19 @@
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3" s="54" t="s">
         <v>22</v>
@@ -3336,19 +3469,19 @@
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>22</v>
@@ -3356,19 +3489,19 @@
     </row>
     <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" s="54" t="s">
         <v>22</v>
@@ -3376,13 +3509,13 @@
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>41</v>
@@ -3396,16 +3529,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7" s="11">
         <v>0</v>
@@ -3416,16 +3549,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
@@ -3439,13 +3572,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
@@ -3456,16 +3589,16 @@
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
@@ -3477,13 +3610,13 @@
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
       <c r="B11" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="11">
         <v>0</v>
@@ -3494,13 +3627,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>27</v>
@@ -3514,19 +3647,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F13" s="54" t="s">
         <v>22</v>
@@ -3534,19 +3667,19 @@
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>22</v>
@@ -3554,19 +3687,19 @@
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F15" s="56" t="s">
         <v>22</v>
@@ -3574,16 +3707,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E16" s="11">
         <v>20000</v>
@@ -3594,16 +3727,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E17" s="11">
         <v>0</v>
@@ -3614,16 +3747,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E18" s="11">
         <v>100</v>
@@ -3634,16 +3767,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19" s="11">
         <v>1</v>
@@ -3654,16 +3787,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E20" s="11">
         <v>0.1</v>
@@ -3674,16 +3807,16 @@
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E21" s="24">
         <v>1</v>
@@ -3694,19 +3827,19 @@
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F22" s="56" t="s">
         <v>22</v>
@@ -3714,19 +3847,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F23" s="54" t="s">
         <v>22</v>
@@ -3734,19 +3867,19 @@
     </row>
     <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F24" s="54" t="s">
         <v>22</v>
@@ -3754,16 +3887,16 @@
     </row>
     <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B25" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E25" s="11">
         <v>0</v>
@@ -3774,16 +3907,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E26" s="11">
         <v>1</v>
@@ -3794,16 +3927,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E27" s="11">
         <v>1</v>
@@ -3814,19 +3947,19 @@
     </row>
     <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F28" s="54" t="s">
         <v>22</v>
@@ -3834,16 +3967,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>97</v>
@@ -3854,16 +3987,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E30" s="11">
         <v>1</v>
@@ -3874,16 +4007,16 @@
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B31" s="66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E31" s="24">
         <v>1</v>
@@ -3894,16 +4027,16 @@
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E32" s="18">
         <v>1</v>
@@ -3917,13 +4050,13 @@
         <v>48</v>
       </c>
       <c r="B33" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E33" s="24">
         <v>0</v>

--- a/config/default.xlsx
+++ b/config/default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="13_ncr:1_{28BD4CF4-A877-4909-81F4-E5A6CEB4DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3943503-D7B1-4FBC-A901-F3E6A6FE7BA2}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="13_ncr:1_{28BD4CF4-A877-4909-81F4-E5A6CEB4DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF6C9A55-DE88-4651-917E-772F8C458E5F}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="30912" windowHeight="16752" activeTab="2" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="266">
   <si>
     <t>#</t>
   </si>
@@ -843,179 +843,79 @@
 (tar): trapezoidal</t>
   </si>
   <si>
-    <t>(FF): fundamental frequency, 
+    <t>HY</t>
+  </si>
+  <si>
+    <t>v.1.1</t>
+  </si>
+  <si>
+    <t>05.02.2026</t>
+  </si>
+  <si>
+    <t>Adding Parameters for DAB</t>
+  </si>
+  <si>
+    <t>Phi DAB</t>
+  </si>
+  <si>
+    <t>phase-shift between primary and secondary votlage DAB converter</t>
+  </si>
+  <si>
+    <t>PhiDAB</t>
+  </si>
+  <si>
+    <t>load inductance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inverter (B6,B4,B2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(FF): fundamental frequency, 
 (CB): carrier based, 
 (SV): space vector based, 
 (OPP): optimal pulse pattern,
-(OSM): optimal subcycle modulation</t>
-  </si>
-  <si>
-    <t>HY</t>
-  </si>
-  <si>
-    <t>Iph Min</t>
-  </si>
-  <si>
-    <t>Iph Max</t>
-  </si>
-  <si>
-    <t>Iph Points</t>
-  </si>
-  <si>
-    <t>minIph</t>
-  </si>
-  <si>
-    <t>maxIph</t>
-  </si>
-  <si>
-    <t>nIph</t>
-  </si>
-  <si>
-    <t>Vdc Min</t>
-  </si>
-  <si>
-    <t>Vdc Max</t>
-  </si>
-  <si>
-    <t>Vdc Points</t>
-  </si>
-  <si>
-    <t>fel Min</t>
-  </si>
-  <si>
-    <t>fel Max</t>
-  </si>
-  <si>
-    <t>fel Points</t>
-  </si>
-  <si>
-    <t>fsw Min</t>
-  </si>
-  <si>
-    <t>fsw Max</t>
-  </si>
-  <si>
-    <t>fsw Points</t>
-  </si>
-  <si>
-    <t>Tc Min</t>
-  </si>
-  <si>
-    <t>Tc Max</t>
-  </si>
-  <si>
-    <t>Tc Points</t>
-  </si>
-  <si>
-    <t>minVdc</t>
-  </si>
-  <si>
-    <t>maxVdc</t>
-  </si>
-  <si>
-    <t>nVdc</t>
-  </si>
-  <si>
-    <t>minFel</t>
-  </si>
-  <si>
-    <t>maxFel</t>
-  </si>
-  <si>
-    <t>nFel</t>
-  </si>
-  <si>
-    <t>minFsw</t>
-  </si>
-  <si>
-    <t>maxFsw</t>
-  </si>
-  <si>
-    <t>nFsw</t>
-  </si>
-  <si>
-    <t>minTc</t>
-  </si>
-  <si>
-    <t>maxTc</t>
-  </si>
-  <si>
-    <t>nTc</t>
-  </si>
-  <si>
-    <t>Minimum value of the phase current in the LUT</t>
-  </si>
-  <si>
-    <t>Maximum value of the phase current in the LUT</t>
-  </si>
-  <si>
-    <t>Minimum value of the dc link voltage in the LUT</t>
-  </si>
-  <si>
-    <t>Maximum value of the dc link voltage in the LUT</t>
-  </si>
-  <si>
-    <t>Number of data points of the phase current in the LUT</t>
-  </si>
-  <si>
-    <t>Number of datapoints of the dc link voltage in the LUT</t>
-  </si>
-  <si>
-    <t>Minimum value of the fundamental freq. in the LUT</t>
-  </si>
-  <si>
-    <t>Maximum value of the fundamental freq. in the LUT</t>
-  </si>
-  <si>
-    <t>Number of datapoints of the fundamental freq. in the LUT</t>
-  </si>
-  <si>
-    <t>Minimum value of the switching freq. in the LUT</t>
-  </si>
-  <si>
-    <t>Maximum value of the switching freq. in the LUT</t>
-  </si>
-  <si>
-    <t>Number of datapoints of the switching freq. in the LUT</t>
-  </si>
-  <si>
-    <t>Minimum value of the coolant temperature in the LUT</t>
-  </si>
-  <si>
-    <t>Maximum value of the coolant temperature in the LUT</t>
-  </si>
-  <si>
-    <t>Number of datapoints of the coolant temperature in the LUT</t>
-  </si>
-  <si>
-    <t>v.1.1</t>
-  </si>
-  <si>
-    <t>05.02.2026</t>
-  </si>
-  <si>
-    <t>Adding Parameters for DAB</t>
-  </si>
-  <si>
-    <t>Transformer ratio</t>
-  </si>
-  <si>
-    <t>Transformer turns ratio n (primary/secondary)</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>load inductance/ leakage inductance for DAB</t>
-  </si>
-  <si>
-    <t>Phi DAB</t>
-  </si>
-  <si>
-    <t>phase-shift between primary and secondary votlage DAB converter</t>
-  </si>
-  <si>
-    <t>PhiDAB</t>
+(OSM): optimal subcycle modulation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DCDC (DAB, PSFB)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(SPS): Single Phase Shift</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1093,7 +993,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1488,61 +1388,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1678,12 +1528,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1692,19 +1536,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2045,7 +1876,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2061,7 +1892,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2092,11 +1923,11 @@
       <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="69" t="s">
+      <c r="J13" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="K13" s="70"/>
-      <c r="L13" s="71"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="69"/>
     </row>
     <row r="14" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -2186,13 +2017,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="C17" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="D17" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
@@ -2231,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAB857B-5D2E-4BE1-B462-B4B5EEAA4370}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2388,276 +2219,6 @@
         <v>20</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="67" t="s">
-        <v>259</v>
-      </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="67" t="s">
-        <v>260</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="E10" s="68">
-        <v>200</v>
-      </c>
-      <c r="F10" s="54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
-        <v>261</v>
-      </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>264</v>
-      </c>
-      <c r="E11" s="68">
-        <v>11</v>
-      </c>
-      <c r="F11" s="54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="67" t="s">
-        <v>265</v>
-      </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="E12" s="68">
-        <v>400</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="67" t="s">
-        <v>266</v>
-      </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>278</v>
-      </c>
-      <c r="E13" s="68">
-        <v>800</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>279</v>
-      </c>
-      <c r="E14" s="68">
-        <v>5</v>
-      </c>
-      <c r="F14" s="54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="67" t="s">
-        <v>268</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>280</v>
-      </c>
-      <c r="E15" s="68">
-        <v>50</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="67" t="s">
-        <v>269</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>281</v>
-      </c>
-      <c r="E16" s="68">
-        <v>100</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="E17" s="68">
-        <v>2</v>
-      </c>
-      <c r="F17" s="54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="E18" s="68">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="54" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="E19" s="68">
-        <v>5000</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="67" t="s">
-        <v>273</v>
-      </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="E20" s="68">
-        <v>2</v>
-      </c>
-      <c r="F20" s="54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="67" t="s">
-        <v>274</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="D21" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="E21" s="68">
-        <v>0</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="67" t="s">
-        <v>275</v>
-      </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>287</v>
-      </c>
-      <c r="E22" s="68">
-        <v>75</v>
-      </c>
-      <c r="F22" s="54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="67" t="s">
-        <v>276</v>
-      </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="E23" s="68">
-        <v>4</v>
-      </c>
-      <c r="F23" s="54" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2698,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86190CFD-1D2B-4FE4-A04E-A3C453840C86}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2890,16 +2451,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c r="E10" s="11">
         <v>10</v>
@@ -3049,10 +2610,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799FBFCB-8244-4B83-8CC9-EBD2890613E5}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3269,7 +2830,7 @@
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="9" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>108</v>
@@ -3335,40 +2896,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="72" t="s">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="24">
         <v>50</v>
       </c>
-      <c r="F16" s="76" t="s">
+      <c r="F16" s="55" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>309</v>
-      </c>
-      <c r="E17" s="31">
-        <v>10</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3397,7 +2940,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3427,7 +2970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="130.19999999999999" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>201</v>
       </c>
@@ -3435,7 +2978,7 @@
         <v>140</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>34</v>
@@ -3699,7 +3242,7 @@
         <v>34</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F15" s="56" t="s">
         <v>22</v>
@@ -4068,7 +3611,7 @@
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{C4E97F42-90A4-439F-B50C-11CF79F6F56D}">
-      <formula1>"FF, CB, SV, OPP, OSM"</formula1>
+      <formula1>"FF, CB, SV, OPP, OSM, SPS"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{59C00FD6-B4B9-40ED-B5DF-7556515D16B9}">
       <formula1>"SE, DE"</formula1>

--- a/config/default.xlsx
+++ b/config/default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="271" documentId="13_ncr:1_{28BD4CF4-A877-4909-81F4-E5A6CEB4DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF6C9A55-DE88-4651-917E-772F8C458E5F}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="13_ncr:1_{28BD4CF4-A877-4909-81F4-E5A6CEB4DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F5B10D2-D40E-4D79-8B07-8D767D84B4BF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="268">
   <si>
     <t>#</t>
   </si>
@@ -916,6 +916,12 @@
       <t xml:space="preserve">
 (SPS): Single Phase Shift</t>
     </r>
+  </si>
+  <si>
+    <t>Trafo Model</t>
+  </si>
+  <si>
+    <t>TraMdl</t>
   </si>
 </sst>
 </file>
@@ -2612,7 +2618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799FBFCB-8244-4B83-8CC9-EBD2890613E5}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -2937,10 +2943,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245B3F0A-B85A-4162-A12D-AC7176B54015}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3490,7 +3496,7 @@
     </row>
     <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="B28" s="65" t="s">
         <v>165</v>
@@ -3499,30 +3505,30 @@
         <v>190</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="F28" s="54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B29" s="65" t="s">
         <v>165</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="F29" s="54" t="s">
         <v>22</v>
@@ -3530,81 +3536,101 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B30" s="65" t="s">
         <v>165</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D31" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <v>1</v>
       </c>
-      <c r="F30" s="54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="34" t="s">
+      <c r="F31" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B32" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D32" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E32" s="24">
         <v>1</v>
       </c>
-      <c r="F31" s="55" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+      <c r="F32" s="55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="64" t="s">
+      <c r="B33" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C33" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D32" s="53" t="s">
+      <c r="D33" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E33" s="18">
         <v>1</v>
       </c>
-      <c r="F32" s="56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="34" t="s">
+      <c r="F33" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B34" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C34" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D34" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E34" s="24">
         <v>0</v>
       </c>
-      <c r="F33" s="55" t="s">
+      <c r="F34" s="55" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3622,7 +3648,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5" xr:uid="{9D931B16-8DBB-4320-9C50-FA16D061031E}">
       <formula1>"RE, FE, SM, AM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E9 E10 E11 E25 E32" xr:uid="{7BE6246F-D0E4-4835-A57D-61D617CCED04}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E9:E11 E25 E33" xr:uid="{7BE6246F-D0E4-4835-A57D-61D617CCED04}">
       <formula1>"0, 1"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13" xr:uid="{7673DE90-8C38-46FF-9FB4-B656D095FE62}">
@@ -3634,7 +3660,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15" xr:uid="{90D98357-ACED-4653-AB7B-A3CEC801E876}">
       <formula1>"PI, HY"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22 E28" xr:uid="{DE992E13-D1C1-46ED-BEA8-BE094B6B7715}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22 E28:E29" xr:uid="{DE992E13-D1C1-46ED-BEA8-BE094B6B7715}">
       <formula1>"con, pwl, tab"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23" xr:uid="{A70C38F5-821B-4F3A-BDB2-CC8CF690BF2C}">
@@ -3643,10 +3669,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24" xr:uid="{7C364B69-56D0-48CC-AD38-5F95308F6901}">
       <formula1>"D, DT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29" xr:uid="{929AF257-5302-40CF-95CE-90A8E96F7A27}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30" xr:uid="{929AF257-5302-40CF-95CE-90A8E96F7A27}">
       <formula1>"Elco, MLCC, Film"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E33" xr:uid="{FCEC61A7-870F-4FD7-9209-49AF3D7561F8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E34" xr:uid="{FCEC61A7-870F-4FD7-9209-49AF3D7561F8}">
       <formula1>"0, 1, 2"</formula1>
     </dataValidation>
   </dataValidations>
